--- a/data/Map134.xlsx
+++ b/data/Map134.xlsx
@@ -381,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,48 +389,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
